--- a/dat/Socio_Econ/00_raw_data/first_dose_coverage.xlsx
+++ b/dat/Socio_Econ/00_raw_data/first_dose_coverage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_370690647668ECF92D4DADDE51201E35145AF5E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="2240" windowWidth="12960" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:K2282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -70286,7 +70286,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>353</v>
       </c>
